--- a/biology/Botanique/Grevillea_banksii/Grevillea_banksii.xlsx
+++ b/biology/Botanique/Grevillea_banksii/Grevillea_banksii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grevillea banksii, le grevillea de Banks, est une espèce de plantes de la famille des Proteaceae. Elle est originaire du Queensland en Australie. Elle a été longtemps cultivée dans de nombreux jardins tropicaux mais elle est de plus en plus supplantée par des cultivars plus florifères.
 C'est un arbuste élancé de 7 mètres de haut. Les feuilles sont pennées avec de 3 à 11 folioles allongés ou lancéolés, de 5 à 10 cm de long sur 1 de large. Les fleurs, en grappes de 15 cm de long, sont rouges ou blanc-crémeux. La plante fleurit presque toute l'année mais surtout en hiver ou au printemps.
